--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="C23:D23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>DrinkMachine_Lv1</t>
   </si>
   <si>
-    <t>[10201]</t>
+    <t>[1100301]</t>
   </si>
   <si>
     <t>[1]</t>
@@ -71,64 +71,34 @@
     <t>DrinkMachine_Lv2</t>
   </si>
   <si>
-    <t>[10101]</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv3</t>
   </si>
   <si>
-    <t>[20101]</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv4</t>
   </si>
   <si>
-    <t>[20105]</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv5</t>
   </si>
   <si>
-    <t>[10301]</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv6</t>
   </si>
   <si>
-    <t>[40101]</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv7</t>
   </si>
   <si>
-    <t>[40201]</t>
-  </si>
-  <si>
     <t>LemonTree_Lv1</t>
   </si>
   <si>
-    <t>[30201]</t>
+    <t>[1100201]</t>
   </si>
   <si>
     <t>LemonTree_Lv2</t>
   </si>
   <si>
-    <t>[30301]</t>
-  </si>
-  <si>
     <t>LemonTree_Lv3</t>
   </si>
   <si>
-    <t>[50101]</t>
-  </si>
-  <si>
     <t>LemonTree_Lv4</t>
-  </si>
-  <si>
-    <t>[40101,20101]</t>
-  </si>
-  <si>
-    <t>[0.75,0.25]</t>
   </si>
   <si>
     <t>LemonTree_Lv5</t>
@@ -1120,7 +1090,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1205,8 +1175,8 @@
       <c r="C4" s="4">
         <v>2000102</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -1220,13 +1190,13 @@
         <v>2000103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>2000103</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
@@ -1240,13 +1210,13 @@
         <v>2000104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>2000104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1260,13 +1230,13 @@
         <v>2000105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>2000105</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -1280,13 +1250,13 @@
         <v>2000106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>2000106</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -1300,13 +1270,13 @@
         <v>2000107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
         <v>2000107</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1320,13 +1290,13 @@
         <v>2000201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>2000201</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -1340,13 +1310,13 @@
         <v>2000202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>2000202</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
@@ -1360,13 +1330,13 @@
         <v>2000203</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4">
         <v>2000203</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -1380,16 +1350,16 @@
         <v>2000204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4">
         <v>2000204</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1400,16 +1370,16 @@
         <v>2000205</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
         <v>2000205</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1420,16 +1390,16 @@
         <v>2000206</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4">
         <v>2000206</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1440,16 +1410,16 @@
         <v>2000207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <v>2000207</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,12 @@
     <t>MaxHealthCount</t>
   </si>
   <si>
+    <t>LuckyRatio</t>
+  </si>
+  <si>
+    <t>LuckDropItemRatio</t>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>Float[]</t>
   </si>
   <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>DrinkMachine_Lv1</t>
   </si>
   <si>
@@ -68,6 +77,9 @@
     <t>[1]</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>DrinkMachine_Lv2</t>
   </si>
   <si>
@@ -80,10 +92,19 @@
     <t>DrinkMachine_Lv5</t>
   </si>
   <si>
+    <t>[90,10]</t>
+  </si>
+  <si>
     <t>DrinkMachine_Lv6</t>
   </si>
   <si>
+    <t>[80,15,5]</t>
+  </si>
+  <si>
     <t>DrinkMachine_Lv7</t>
+  </si>
+  <si>
+    <t>[70,20,5,5]</t>
   </si>
   <si>
     <t>LemonTree_Lv1</t>
@@ -475,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -487,6 +508,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -622,7 +656,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,34 +668,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,8 +793,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1087,25 +1127,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5833333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.1666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.8916666666667" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.89166666666667" style="2"/>
+    <col min="6" max="6" width="19.5833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.0833333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1124,305 +1165,403 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>2000101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2000101</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>2000106</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2000106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>2000107</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2000107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>2000201</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2000201</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>2000202</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2000202</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>2000203</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2000203</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
+      <c r="G12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>2000101</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2000101</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6</v>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>2000204</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2000204</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
-        <v>2000102</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2000102</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5">
-        <v>4</v>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>2000205</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2000205</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>2000103</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2000103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>2000206</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2000206</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>2000104</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>2000207</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2000207</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
-        <v>2000104</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
-        <v>2000105</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2000105</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <v>2000106</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2000106</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2000107</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2000107</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
-        <v>2000201</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2000201</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <v>2000202</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2000202</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
-        <v>2000203</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2000203</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
-        <v>2000204</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2000204</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>2000205</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2000205</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <v>2000206</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="G16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2000206</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>2000207</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2000207</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -780,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1130,7 +1127,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1219,10 +1216,10 @@
       <c r="F3" s="6">
         <v>6</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.1</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1239,16 +1236,16 @@
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1271,10 +1268,10 @@
       <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.1</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1297,10 +1294,10 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1323,10 +1320,10 @@
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1349,10 +1346,10 @@
       <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1375,10 +1372,10 @@
       <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1401,10 +1398,10 @@
       <c r="F10" s="6">
         <v>3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.1</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1427,10 +1424,10 @@
       <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.1</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1453,10 +1450,10 @@
       <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.1</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1479,10 +1476,10 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.1</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1505,10 +1502,10 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.2</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1531,10 +1528,10 @@
       <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.3</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1557,10 +1554,10 @@
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.4</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -68,27 +68,18 @@
     <t>Float</t>
   </si>
   <si>
-    <t>DrinkMachine_Lv1</t>
-  </si>
-  <si>
-    <t>[1100301]</t>
+    <t>DrinkMachine_Lv4</t>
+  </si>
+  <si>
+    <t>[1100301,1100601]</t>
+  </si>
+  <si>
+    <t>[0.8,0.2]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv2</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv3</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv4</t>
-  </si>
-  <si>
     <t>DrinkMachine_Lv5</t>
   </si>
   <si>
@@ -107,21 +98,12 @@
     <t>[70,20,5,5]</t>
   </si>
   <si>
-    <t>LemonTree_Lv1</t>
+    <t>LemonTree_Lv4</t>
   </si>
   <si>
     <t>[1100201]</t>
   </si>
   <si>
-    <t>LemonTree_Lv2</t>
-  </si>
-  <si>
-    <t>LemonTree_Lv3</t>
-  </si>
-  <si>
-    <t>LemonTree_Lv4</t>
-  </si>
-  <si>
     <t>LemonTree_Lv5</t>
   </si>
   <si>
@@ -129,6 +111,24 @@
   </si>
   <si>
     <t>LemonTree_Lv7</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv4</t>
+  </si>
+  <si>
+    <t>[1100701,1100801]</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv5</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv6</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv7</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv8</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,9 +800,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1124,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1135,7 +1132,7 @@
     <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.9166666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.1666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.0833333333333" style="2" customWidth="1"/>
@@ -1199,13 +1196,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5">
-        <v>2000101</v>
+        <v>2000104</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5">
-        <v>2000101</v>
+        <v>2000104</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
@@ -1214,10 +1211,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>16</v>
@@ -1225,39 +1222,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
-        <v>2000102</v>
+        <v>2000105</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="5">
-        <v>2000102</v>
+        <v>2000105</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5">
-        <v>2000103</v>
+        <v>2000106</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
-        <v>2000103</v>
+        <v>2000106</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -1266,24 +1263,24 @@
         <v>15</v>
       </c>
       <c r="F5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5">
-        <v>2000104</v>
+        <v>2000107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5">
-        <v>2000104</v>
+        <v>2000107</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -1292,140 +1289,140 @@
         <v>15</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="6">
         <v>0.2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
-        <v>2000105</v>
+        <v>2000204</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
-        <v>2000105</v>
+        <v>2000204</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5">
-        <v>2000106</v>
+        <v>2000205</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5">
-        <v>2000106</v>
+        <v>2000205</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6">
         <v>0.2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5">
-        <v>2000107</v>
+        <v>2000206</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2000206</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
-        <v>2000107</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5">
-        <v>2000201</v>
+        <v>2000207</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
-        <v>2000201</v>
+        <v>2000207</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5">
-        <v>2000202</v>
+        <v>2000304</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5">
-        <v>2000202</v>
+        <v>2000304</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>16</v>
@@ -1433,132 +1430,106 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5">
-        <v>2000203</v>
+        <v>2000305</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2000305</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2000203</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5">
-        <v>2000204</v>
+        <v>2000306</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>2000204</v>
+        <v>2000306</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5">
-        <v>2000205</v>
+        <v>2000307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5">
-        <v>2000205</v>
+        <v>2000307</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="6">
         <v>0.2</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5">
-        <v>2000206</v>
+        <v>2000308</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5">
-        <v>2000206</v>
+        <v>2000308</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5">
-        <v>2000207</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2000207</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -77,33 +77,36 @@
     <t>[0.8,0.2]</t>
   </si>
   <si>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv5</t>
+  </si>
+  <si>
+    <t>[90,10]</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv6</t>
+  </si>
+  <si>
+    <t>[80,15,5]</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv7</t>
+  </si>
+  <si>
+    <t>[70,20,5,5]</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv4</t>
+  </si>
+  <si>
+    <t>[1100201]</t>
+  </si>
+  <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>DrinkMachine_Lv5</t>
-  </si>
-  <si>
-    <t>[90,10]</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv6</t>
-  </si>
-  <si>
-    <t>[80,15,5]</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv7</t>
-  </si>
-  <si>
-    <t>[70,20,5,5]</t>
-  </si>
-  <si>
-    <t>LemonTree_Lv4</t>
-  </si>
-  <si>
-    <t>[1100201]</t>
-  </si>
-  <si>
     <t>LemonTree_Lv5</t>
   </si>
   <si>
@@ -129,6 +132,12 @@
   </si>
   <si>
     <t>KitchenBag_Lv8</t>
+  </si>
+  <si>
+    <t>ToolBox_Lv3</t>
+  </si>
+  <si>
+    <t>[1100401]</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1121,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1204,19 +1210,19 @@
       <c r="C3" s="5">
         <v>2000104</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1230,19 +1236,19 @@
       <c r="C4" s="5">
         <v>2000105</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.2</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1256,19 +1262,19 @@
       <c r="C5" s="5">
         <v>2000106</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6">
-        <v>4</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1282,19 +1288,19 @@
       <c r="C6" s="5">
         <v>2000107</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.2</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1308,19 +1314,19 @@
       <c r="C7" s="5">
         <v>2000204</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.1</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1329,24 +1335,24 @@
         <v>2000205</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
         <v>2000205</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.2</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1355,24 +1361,24 @@
         <v>2000206</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>2000206</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.3</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1381,24 +1387,24 @@
         <v>2000207</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>2000207</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="5">
         <v>0.4</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1407,24 +1413,24 @@
         <v>2000304</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>2000304</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.2</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1433,24 +1439,24 @@
         <v>2000305</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>2000305</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.2</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1459,24 +1465,24 @@
         <v>2000306</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
         <v>2000306</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6">
-        <v>4</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="5">
         <v>0.2</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1485,24 +1491,24 @@
         <v>2000307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>2000307</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="5">
         <v>0.2</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1511,25 +1517,51 @@
         <v>2000308</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5">
         <v>2000308</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="6">
-        <v>4</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="5">
         <v>0.2</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>2000403</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2000403</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>[1100401]</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv1</t>
+  </si>
+  <si>
+    <t>[1100901,2000401,4000201]</t>
+  </si>
+  <si>
+    <t>[0.5,0.4,0.1]</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv2</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv3</t>
   </si>
 </sst>
 </file>
@@ -789,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +822,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1127,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1138,7 +1156,7 @@
     <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.9166666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.1666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.0833333333333" style="2" customWidth="1"/>
@@ -1564,6 +1582,84 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>2000501</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2000501</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>2000502</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2000502</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="6">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>2000503</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2000503</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -143,10 +143,10 @@
     <t>CGenerator_Lv1</t>
   </si>
   <si>
-    <t>[1100901,2000401,4000201]</t>
-  </si>
-  <si>
-    <t>[0.5,0.4,0.1]</t>
+    <t>[1100901,1100401]</t>
+  </si>
+  <si>
+    <t>[0.6,0.4]</t>
   </si>
   <si>
     <t>CGenerator_Lv2</t>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -143,7 +143,7 @@
     <t>CGenerator_Lv1</t>
   </si>
   <si>
-    <t>[1100901,1100401]</t>
+    <t>[1100901,1100402]</t>
   </si>
   <si>
     <t>[0.6,0.4]</t>
@@ -804,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,9 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1148,7 +1145,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1598,7 +1595,7 @@
       <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>8</v>
       </c>
       <c r="G17" s="5">
@@ -1624,7 +1621,7 @@
       <c r="E18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>16</v>
       </c>
       <c r="G18" s="5">
@@ -1650,8 +1647,8 @@
       <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="6">
-        <v>24</v>
+      <c r="F19" s="5">
+        <v>-1</v>
       </c>
       <c r="G19" s="5">
         <v>0.2</v>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -143,7 +143,7 @@
     <t>CGenerator_Lv1</t>
   </si>
   <si>
-    <t>[1100901,1100402]</t>
+    <t>[1100901,1100401]</t>
   </si>
   <si>
     <t>[0.6,0.4]</t>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>CGenerator_Lv3</t>
+  </si>
+  <si>
+    <t>GiftBag_Lv1</t>
+  </si>
+  <si>
+    <t>[4000201,4000202,4000202,4000101,4000102,4000103]</t>
+  </si>
+  <si>
+    <t>[0,0.2,0.2,0,0.2,0.2]</t>
   </si>
 </sst>
 </file>
@@ -804,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1142,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1153,7 +1165,7 @@
     <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.1666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.1666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.5833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.0833333333333" style="2" customWidth="1"/>
@@ -1657,6 +1669,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>2000601</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2000601</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="5">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Excel/GeneratorConfig.xlsx
+++ b/Assets/Resources/Excel/GeneratorConfig.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4658AC-B267-4642-BA3A-D1AC2030022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -167,14 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,151 +178,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,192 +193,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -565,255 +234,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,65 +259,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1148,32 +528,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.9166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.1666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.0833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="74.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.89166666666667" style="2"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +580,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:9">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +607,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2000104</v>
       </c>
@@ -1253,7 +633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2000105</v>
       </c>
@@ -1279,7 +659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2000106</v>
       </c>
@@ -1305,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2000107</v>
       </c>
@@ -1331,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2000204</v>
       </c>
@@ -1357,7 +737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2000205</v>
       </c>
@@ -1383,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2000206</v>
       </c>
@@ -1409,7 +789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2000207</v>
       </c>
@@ -1435,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2000304</v>
       </c>
@@ -1461,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2000305</v>
       </c>
@@ -1487,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2000306</v>
       </c>
@@ -1513,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2000307</v>
       </c>
@@ -1539,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2000308</v>
       </c>
@@ -1565,7 +945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2000403</v>
       </c>
@@ -1591,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2000501</v>
       </c>
@@ -1611,13 +991,13 @@
         <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2000502</v>
       </c>
@@ -1643,7 +1023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2000503</v>
       </c>
@@ -1669,14 +1049,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>2000601</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>2000601</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1696,8 +1076,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>